--- a/R/Summary-Stats.xlsx
+++ b/R/Summary-Stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Well ID</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Maximum Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW-1</t>
   </si>
   <si>
     <t xml:space="preserve">Calcium</t>
@@ -72,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,11 +87,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,11 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -217,8 +206,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -519,217 +512,211 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="n">
+        <v>100832</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>36221</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>50.64</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="9" t="n">
+        <v>100832</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <v>36221</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="4" t="n">
         <v>44545</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>89.68</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="9" t="n">
+        <v>100832</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <v>36221</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>44545</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="2" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="9" t="n">
+        <v>100832</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <v>36221</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>44545</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>16.04</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="2" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="B7" s="9" t="n">
+        <v>100832</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>36221</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="4" t="n">
         <v>44545</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>7.68</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="2" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="B8" s="9" t="n">
+        <v>100832</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="4" t="n">
         <v>36221</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="4" t="n">
         <v>44545</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>75.83</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="2" t="n">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" scale="100" fitToWidth="1" fitToHeight="0" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
